--- a/medicine/Psychotrope/Friulano/Friulano.xlsx
+++ b/medicine/Psychotrope/Friulano/Friulano.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le friulano est un cépage italien de raisin blanc. Jusque mars 2007, il portait le nom de tocai friulano, mais la mention tocai a dû être supprimée en application d'un accord entre la Communauté européenne et la Hongrie relatif à la protection réciproque et au contrôle des dénominations de vins[1].
+Le friulano est un cépage italien de raisin blanc. Jusque mars 2007, il portait le nom de tocai friulano, mais la mention tocai a dû être supprimée en application d'un accord entre la Communauté européenne et la Hongrie relatif à la protection réciproque et au contrôle des dénominations de vins.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est classé cépage d'appoint en DOC Bianco di Custoza, Colli Berici, Collio Goriziano, Colli Orientali del Friuli, Friuli Annia, Friuli Aquileia, Friuli Grave, Friuli Isonzo et Friuli Latisana.
 Il est classé recommandé ou autorisé dans de nombreuses provinces d'Italie. En 1998, sa culture couvrait une superficie de 7 259 ha.
@@ -546,7 +560,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau duveteux, blanc verdâtre.
 Jeunes feuilles aranéeuses, jaunâtres et brillantes.
@@ -578,7 +594,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de deuxième époque: 20 jours après le chasselas.
 </t>
@@ -609,7 +627,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont moyennes et les baies sont de taille petite. La grappe est cylindrique et compacte. Le cépage est de bonne vigueur. Le cépage est très sensible à la pourriture grise et au mildiou. Il produit des vins similaires au sauvignon.
 </t>
@@ -640,7 +660,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le  friulano est connu sous les noms de brebbianello, cinquien, friulano, malaga, sauvignon à gros grains, sauvignon de la Corrèze, sauvignon Vert, sauvignonasse (en Gironde), tocai, tocai Bianco, tocai Italiano, tocai friulano, tokai, trebbianello.
 </t>
